--- a/branches/StructureDefinition-BeNursingCareRequest.xlsx
+++ b/branches/StructureDefinition-BeNursingCareRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
